--- a/data_process/plot/Label_4.xlsx
+++ b/data_process/plot/Label_4.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Lingjie-70B" sheetId="7" r:id="rId10"/>
     <sheet name="shaohanh-70B" sheetId="8" r:id="rId11"/>
     <sheet name="Label3-70B" sheetId="9" r:id="rId12"/>
-    <sheet name="text_70B" sheetId="10" r:id="rId13"/>
-    <sheet name="image_70B" sheetId="11" r:id="rId14"/>
+    <sheet name="gpt4_text_70B" sheetId="10" r:id="rId13"/>
+    <sheet name="gpt4_image_70B" sheetId="11" r:id="rId14"/>
     <sheet name="gpt4o" sheetId="12" r:id="rId15"/>
   </sheets>
   <calcPr calcMode="auto"/>
